--- a/itemlist/集金.xlsx
+++ b/itemlist/集金.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>集金</t>
     <rPh sb="0" eb="2">
@@ -58,6 +58,20 @@
     <t>陳さん</t>
     <rPh sb="0" eb="1">
       <t>チン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>浦川さん</t>
+    <rPh sb="0" eb="2">
+      <t>ウラカワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>２万円</t>
+    <rPh sb="1" eb="3">
+      <t>マンエン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -408,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:F9"/>
+  <dimension ref="B4:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -458,6 +472,14 @@
         <v>3</v>
       </c>
     </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/itemlist/集金.xlsx
+++ b/itemlist/集金.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>集金</t>
     <rPh sb="0" eb="2">
@@ -72,6 +72,41 @@
     <t>２万円</t>
     <rPh sb="1" eb="3">
       <t>マンエン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2019.06.26</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>田中さん</t>
+    <rPh sb="0" eb="2">
+      <t>タナカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1万円</t>
+    <rPh sb="1" eb="2">
+      <t>マン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>エン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>峯さん</t>
+    <rPh sb="0" eb="1">
+      <t>ミネ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>陳さん</t>
+    <rPh sb="0" eb="1">
+      <t>チン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -422,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:F10"/>
+  <dimension ref="B4:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -480,6 +515,35 @@
         <v>8</v>
       </c>
     </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="D20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/itemlist/集金.xlsx
+++ b/itemlist/集金.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>集金</t>
     <rPh sb="0" eb="2">
@@ -107,6 +107,21 @@
     <t>陳さん</t>
     <rPh sb="0" eb="1">
       <t>チン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2019.06.28</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>だんさん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1万円</t>
+    <rPh sb="1" eb="3">
+      <t>マンエン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -457,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:F20"/>
+  <dimension ref="B4:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -544,6 +559,17 @@
         <v>11</v>
       </c>
     </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
